--- a/parameter_search_results/random_search_gradientboostingregressor.xlsx
+++ b/parameter_search_results/random_search_gradientboostingregressor.xlsx
@@ -532,16 +532,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9945298671722412</v>
+        <v>0.9867254734039307</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02436152819776223</v>
+        <v>0.01633574267064896</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002471017837524414</v>
+        <v>0.002515697479248047</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0002964489517890647</v>
+        <v>0.000281701599318025</v>
       </c>
       <c r="E2" t="n">
         <v>0.1223620356542087</v>
@@ -591,16 +591,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.559562063217163</v>
+        <v>1.562062454223633</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01304059865240522</v>
+        <v>0.02233339210189311</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002533531188964844</v>
+        <v>0.002414751052856445</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0003132937195447197</v>
+        <v>0.0002286052224454113</v>
       </c>
       <c r="E3" t="n">
         <v>0.05680559213273095</v>
@@ -650,16 +650,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1484148025512695</v>
+        <v>0.1416233062744141</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01016345767016894</v>
+        <v>0.005507080399633877</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002323627471923828</v>
+        <v>0.002539348602294922</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0002176529985869227</v>
+        <v>0.0002276355569084191</v>
       </c>
       <c r="E4" t="n">
         <v>0.1101125833417065</v>
@@ -713,16 +713,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2503595352172852</v>
+        <v>0.2520378112792969</v>
       </c>
       <c r="B5" t="n">
-        <v>0.009241000743018013</v>
+        <v>0.01294872342888556</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002520513534545898</v>
+        <v>0.003245735168457031</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0002574895664376393</v>
+        <v>0.001524581615496362</v>
       </c>
       <c r="E5" t="n">
         <v>0.0102336297523043</v>
@@ -776,16 +776,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1392013549804688</v>
+        <v>0.1339231967926025</v>
       </c>
       <c r="B6" t="n">
-        <v>0.00510302502709513</v>
+        <v>0.00639246781440835</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002325773239135742</v>
+        <v>0.002157068252563476</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0002270527612531887</v>
+        <v>0.0002199195305875487</v>
       </c>
       <c r="E6" t="n">
         <v>0.1674269294896714</v>
@@ -839,16 +839,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1986358165740967</v>
+        <v>0.1931755065917969</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01291413520748897</v>
+        <v>0.003759688363741538</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002426862716674805</v>
+        <v>0.002512073516845703</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0002603574113172534</v>
+        <v>0.0002021282622825864</v>
       </c>
       <c r="E7" t="n">
         <v>0.1468209952651108</v>
@@ -902,16 +902,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.5487732410430908</v>
+        <v>0.5583285331726074</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01149185696786686</v>
+        <v>0.01653609778227473</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002100133895874024</v>
+        <v>0.002201461791992188</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0002164500688748077</v>
+        <v>0.0002343881204156287</v>
       </c>
       <c r="E8" t="n">
         <v>0.3049692657420365</v>
@@ -961,16 +961,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.09544329643249512</v>
+        <v>0.1003207683563232</v>
       </c>
       <c r="B9" t="n">
-        <v>0.002950568733032279</v>
+        <v>0.003949772367941979</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002108049392700195</v>
+        <v>0.002237892150878906</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0003170347296580395</v>
+        <v>0.0002704667943743054</v>
       </c>
       <c r="E9" t="n">
         <v>0.1451497755908629</v>
@@ -1024,16 +1024,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.5447371959686279</v>
+        <v>0.5590430736541748</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01215486851699841</v>
+        <v>0.01681291704809649</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002194356918334961</v>
+        <v>0.002267074584960937</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0003414885013799621</v>
+        <v>0.0002593853627634636</v>
       </c>
       <c r="E10" t="n">
         <v>0.01478987566606426</v>
@@ -1083,16 +1083,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.4046152591705322</v>
+        <v>0.4078000068664551</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01157516438973694</v>
+        <v>0.02079095710149506</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003116226196289062</v>
+        <v>0.002852106094360352</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0002207905164918345</v>
+        <v>0.0003130375693759021</v>
       </c>
       <c r="E11" t="n">
         <v>0.02031655633456552</v>
@@ -1146,16 +1146,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1974635124206543</v>
+        <v>0.1987913608551025</v>
       </c>
       <c r="B12" t="n">
-        <v>0.005144001996899988</v>
+        <v>0.01117659544577172</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002526712417602539</v>
+        <v>0.002396774291992187</v>
       </c>
       <c r="D12" t="n">
-        <v>0.000315141580454378</v>
+        <v>0.0002367441699190163</v>
       </c>
       <c r="E12" t="n">
         <v>0.2366084230952957</v>
@@ -1209,16 +1209,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.08626217842102051</v>
+        <v>0.09346847534179688</v>
       </c>
       <c r="B13" t="n">
-        <v>0.004550482005258788</v>
+        <v>0.002273699658913558</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002103376388549805</v>
+        <v>0.004182815551757812</v>
       </c>
       <c r="D13" t="n">
-        <v>0.000274534677835148</v>
+        <v>0.003710974334237733</v>
       </c>
       <c r="E13" t="n">
         <v>0.01939398773666758</v>
@@ -1272,16 +1272,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2664597034454346</v>
+        <v>0.2644088268280029</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01157144273845338</v>
+        <v>0.002271940522712656</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002796840667724609</v>
+        <v>0.002678394317626953</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0002774497974369286</v>
+        <v>0.0002027397542815608</v>
       </c>
       <c r="E14" t="n">
         <v>0.2281815987569263</v>
@@ -1335,16 +1335,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1073365211486816</v>
+        <v>0.1077356338500977</v>
       </c>
       <c r="B15" t="n">
-        <v>0.004057677722634745</v>
+        <v>0.004269481915161289</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002187633514404297</v>
+        <v>0.002083730697631836</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0002340278007260884</v>
+        <v>0.0002340345433035579</v>
       </c>
       <c r="E15" t="n">
         <v>0.1719076397167239</v>
@@ -1398,16 +1398,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.413338470458984</v>
+        <v>1.507892751693725</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03225266164022004</v>
+        <v>0.07793179824210968</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002477312088012695</v>
+        <v>0.002357053756713867</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0003651941546210861</v>
+        <v>0.0002824542964571745</v>
       </c>
       <c r="E16" t="n">
         <v>0.05958008171890075</v>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.8506059169769287</v>
+        <v>0.8678210258483887</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01897822213348507</v>
+        <v>0.03109159226044114</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002343034744262695</v>
+        <v>0.002392053604125977</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0002413213264062682</v>
+        <v>0.0002433154290343381</v>
       </c>
       <c r="E17" t="n">
         <v>0.01165663513708072</v>
@@ -1516,16 +1516,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.181368541717529</v>
+        <v>1.189182806015015</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03761578107887795</v>
+        <v>0.06542328202264275</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002410650253295898</v>
+        <v>0.00215311050415039</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0003051457539329478</v>
+        <v>7.074203474137511e-05</v>
       </c>
       <c r="E18" t="n">
         <v>0.1917879924343034</v>
@@ -1575,16 +1575,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.188442850112915</v>
+        <v>1.168206739425659</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05548614968895605</v>
+        <v>0.0203427389941358</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002061605453491211</v>
+        <v>0.002322769165039062</v>
       </c>
       <c r="D19" t="n">
-        <v>3.18275855011763e-05</v>
+        <v>0.0002372547161615377</v>
       </c>
       <c r="E19" t="n">
         <v>0.144835202241461</v>
@@ -1634,16 +1634,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.3738827228546143</v>
+        <v>0.3640073299407959</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01840127489156482</v>
+        <v>0.008573029478199722</v>
       </c>
       <c r="C20" t="n">
-        <v>0.002650785446166992</v>
+        <v>0.002540349960327148</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0003091231035012738</v>
+        <v>0.0002274207828417481</v>
       </c>
       <c r="E20" t="n">
         <v>0.09241653789701924</v>
@@ -1697,16 +1697,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.7338297843933106</v>
+        <v>0.7340405941009521</v>
       </c>
       <c r="B21" t="n">
-        <v>0.02431820206722117</v>
+        <v>0.04425619216949892</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00216975212097168</v>
+        <v>0.001978826522827148</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0002611564722637117</v>
+        <v>2.506839562351413e-05</v>
       </c>
       <c r="E21" t="n">
         <v>0.2382355145850692</v>
@@ -1756,16 +1756,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.221426248550415</v>
+        <v>0.2240853786468506</v>
       </c>
       <c r="B22" t="n">
-        <v>0.00866605588752329</v>
+        <v>0.006545114033117667</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00261387825012207</v>
+        <v>0.002481269836425781</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0003109058937828294</v>
+        <v>0.0002438624387820529</v>
       </c>
       <c r="E22" t="n">
         <v>0.1668198488145982</v>
@@ -1819,16 +1819,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.2575387477874756</v>
+        <v>0.2718772411346436</v>
       </c>
       <c r="B23" t="n">
-        <v>0.004047931433531273</v>
+        <v>0.008443336331951023</v>
       </c>
       <c r="C23" t="n">
-        <v>0.002119731903076172</v>
+        <v>0.002453088760375977</v>
       </c>
       <c r="D23" t="n">
-        <v>4.821750370686572e-05</v>
+        <v>0.0002488624046829461</v>
       </c>
       <c r="E23" t="n">
         <v>0.2787290787020558</v>
@@ -1882,16 +1882,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.2161611080169678</v>
+        <v>0.2317467212677002</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01010286775715201</v>
+        <v>0.008936302664742598</v>
       </c>
       <c r="C24" t="n">
-        <v>0.002535295486450195</v>
+        <v>0.002278804779052734</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0003381752994644607</v>
+        <v>0.0002165467112822026</v>
       </c>
       <c r="E24" t="n">
         <v>0.2366653415629146</v>
@@ -1945,16 +1945,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.2438378810882568</v>
+        <v>0.2326786994934082</v>
       </c>
       <c r="B25" t="n">
-        <v>0.00409949928117648</v>
+        <v>0.005179624574799596</v>
       </c>
       <c r="C25" t="n">
-        <v>0.002560138702392578</v>
+        <v>0.003774690628051758</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0003008942972671957</v>
+        <v>0.002019139756544269</v>
       </c>
       <c r="E25" t="n">
         <v>0.09869010575131419</v>
@@ -2008,16 +2008,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.3190252780914307</v>
+        <v>0.2930076122283936</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02186773320289576</v>
+        <v>0.01768750267849463</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002972745895385742</v>
+        <v>0.002625894546508789</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0003633752135733206</v>
+        <v>0.000272658405775344</v>
       </c>
       <c r="E26" t="n">
         <v>0.2777676995469933</v>
@@ -2071,16 +2071,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.1359833717346191</v>
+        <v>0.1305050373077393</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01344103912851138</v>
+        <v>0.009220016046913597</v>
       </c>
       <c r="C27" t="n">
-        <v>0.002298307418823242</v>
+        <v>0.002186059951782227</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0002868739054515805</v>
+        <v>0.000285886404917111</v>
       </c>
       <c r="E27" t="n">
         <v>0.07838054876258249</v>
@@ -2134,16 +2134,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.1973552227020264</v>
+        <v>0.1984845161437988</v>
       </c>
       <c r="B28" t="n">
-        <v>0.004608855043232224</v>
+        <v>0.003358838971130382</v>
       </c>
       <c r="C28" t="n">
-        <v>0.002300882339477539</v>
+        <v>0.002303886413574219</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0002349562344377428</v>
+        <v>0.0001833627924206832</v>
       </c>
       <c r="E28" t="n">
         <v>0.01208563915935721</v>
@@ -2197,16 +2197,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.880740642547607</v>
+        <v>1.901852703094483</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05198360711883419</v>
+        <v>0.1031430606474901</v>
       </c>
       <c r="C29" t="n">
-        <v>0.002950811386108399</v>
+        <v>0.003409004211425781</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0003272147331658134</v>
+        <v>0.001061195172327841</v>
       </c>
       <c r="E29" t="n">
         <v>0.09082370013955643</v>
@@ -2256,16 +2256,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.3098240375518799</v>
+        <v>0.3310699939727783</v>
       </c>
       <c r="B30" t="n">
-        <v>0.008857730405017882</v>
+        <v>0.01373194917107984</v>
       </c>
       <c r="C30" t="n">
-        <v>0.002890586853027344</v>
+        <v>0.002859783172607422</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0003113803235017308</v>
+        <v>0.000311438421057442</v>
       </c>
       <c r="E30" t="n">
         <v>0.3015346248162882</v>
@@ -2319,16 +2319,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.2441807746887207</v>
+        <v>0.2489328384399414</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01234668071544554</v>
+        <v>0.01099038448013436</v>
       </c>
       <c r="C31" t="n">
-        <v>0.002344226837158203</v>
+        <v>0.002487039566040039</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0002559993711015328</v>
+        <v>0.000262749155887071</v>
       </c>
       <c r="E31" t="n">
         <v>0.1002634929450309</v>
@@ -2382,16 +2382,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.6588825225830078</v>
+        <v>0.6644545078277588</v>
       </c>
       <c r="B32" t="n">
-        <v>0.03548482818785573</v>
+        <v>0.03607320904821568</v>
       </c>
       <c r="C32" t="n">
-        <v>0.004093027114868164</v>
+        <v>0.005303192138671875</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0007228151849961677</v>
+        <v>0.002680585850721329</v>
       </c>
       <c r="E32" t="n">
         <v>0.1333111039954694</v>
@@ -2445,16 +2445,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.3155998229980469</v>
+        <v>0.3349211692810058</v>
       </c>
       <c r="B33" t="n">
-        <v>0.007666852144607514</v>
+        <v>0.01859207081948341</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002750110626220703</v>
+        <v>0.002965068817138672</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0001756105477845602</v>
+        <v>0.0002697023003049339</v>
       </c>
       <c r="E33" t="n">
         <v>0.21421163546643</v>
@@ -2508,16 +2508,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.548190975189209</v>
+        <v>0.5345397472381592</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0299629602044406</v>
+        <v>0.009509024226034056</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0034881591796875</v>
+        <v>0.003710031509399414</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0004496886534794811</v>
+        <v>0.0004051616615816189</v>
       </c>
       <c r="E34" t="n">
         <v>0.08264798148322776</v>
@@ -2571,16 +2571,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.2076231479644775</v>
+        <v>0.2043932437896729</v>
       </c>
       <c r="B35" t="n">
-        <v>0.002720118710386158</v>
+        <v>0.01097852058983529</v>
       </c>
       <c r="C35" t="n">
-        <v>0.002627086639404297</v>
+        <v>0.002174568176269531</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0001272733132623298</v>
+        <v>0.0002042801996551046</v>
       </c>
       <c r="E35" t="n">
         <v>0.2549295619658152</v>
@@ -2634,16 +2634,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2.799774026870728</v>
+        <v>2.785656642913819</v>
       </c>
       <c r="B36" t="n">
-        <v>0.04066081377137584</v>
+        <v>0.1252116401828471</v>
       </c>
       <c r="C36" t="n">
-        <v>0.00323948860168457</v>
+        <v>0.002850723266601562</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0002140400108270917</v>
+        <v>0.0002378732835067785</v>
       </c>
       <c r="E36" t="n">
         <v>0.2675076414441159</v>
@@ -2693,16 +2693,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.5508951663970947</v>
+        <v>0.6089256286621094</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01662210379253025</v>
+        <v>0.03427292721242728</v>
       </c>
       <c r="C37" t="n">
-        <v>0.003177738189697266</v>
+        <v>0.004875612258911133</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0003579015511122162</v>
+        <v>0.003413818087110963</v>
       </c>
       <c r="E37" t="n">
         <v>0.1145997961875188</v>
@@ -2756,16 +2756,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.110939311981201</v>
+        <v>1.179661226272583</v>
       </c>
       <c r="B38" t="n">
-        <v>0.03074325160844374</v>
+        <v>0.06507828552594723</v>
       </c>
       <c r="C38" t="n">
-        <v>0.002208662033081055</v>
+        <v>0.002716970443725586</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0002661291959661643</v>
+        <v>0.0006735295810468027</v>
       </c>
       <c r="E38" t="n">
         <v>0.165325405158244</v>
@@ -2815,16 +2815,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.3113629817962646</v>
+        <v>0.2926069736480713</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01701103640188476</v>
+        <v>0.004385070038933522</v>
       </c>
       <c r="C39" t="n">
-        <v>0.002532243728637695</v>
+        <v>0.002606296539306641</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0003502931575622427</v>
+        <v>0.0002075449602766442</v>
       </c>
       <c r="E39" t="n">
         <v>0.07856500653918989</v>
@@ -2878,16 +2878,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.3469182968139649</v>
+        <v>0.3846306800842285</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01646348353904846</v>
+        <v>0.02673616835140001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.002631139755249023</v>
+        <v>0.00283207893371582</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0002062454053944888</v>
+        <v>0.0002392053307082976</v>
       </c>
       <c r="E40" t="n">
         <v>0.03793083034176976</v>
@@ -2941,16 +2941,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.2714041709899903</v>
+        <v>0.2794080734252929</v>
       </c>
       <c r="B41" t="n">
-        <v>0.007280041480678148</v>
+        <v>0.03128023636745318</v>
       </c>
       <c r="C41" t="n">
-        <v>0.002680683135986328</v>
+        <v>0.002461099624633789</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0002770786458647707</v>
+        <v>0.0002222600142963084</v>
       </c>
       <c r="E41" t="n">
         <v>0.2201073489918314</v>
@@ -3004,16 +3004,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.3048113822937012</v>
+        <v>0.3069771289825439</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01737129116269971</v>
+        <v>0.00838460167574572</v>
       </c>
       <c r="C42" t="n">
-        <v>0.002753829956054687</v>
+        <v>0.00288996696472168</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0003537278380915904</v>
+        <v>0.0002848513833785642</v>
       </c>
       <c r="E42" t="n">
         <v>0.05848861422838413</v>
@@ -3067,16 +3067,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.13130202293396</v>
+        <v>0.1389196395874023</v>
       </c>
       <c r="B43" t="n">
-        <v>0.003231347137386428</v>
+        <v>0.004507958135569993</v>
       </c>
       <c r="C43" t="n">
-        <v>0.002162265777587891</v>
+        <v>0.002354526519775391</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0002003711158037464</v>
+        <v>0.0003430975930659172</v>
       </c>
       <c r="E43" t="n">
         <v>0.3020991510265952</v>
@@ -3130,16 +3130,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.2953048229217529</v>
+        <v>0.3416107654571533</v>
       </c>
       <c r="B44" t="n">
-        <v>0.009701040712129344</v>
+        <v>0.01311928957926387</v>
       </c>
       <c r="C44" t="n">
-        <v>0.002579450607299805</v>
+        <v>0.002643108367919922</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0002361096156313465</v>
+        <v>0.0002675670070616021</v>
       </c>
       <c r="E44" t="n">
         <v>0.1445272428958742</v>
@@ -3193,16 +3193,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2.813419437408447</v>
+        <v>2.754643821716309</v>
       </c>
       <c r="B45" t="n">
-        <v>0.08203864401565646</v>
+        <v>0.03601901201334771</v>
       </c>
       <c r="C45" t="n">
-        <v>0.002824592590332031</v>
+        <v>0.002989387512207031</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0002231627651570554</v>
+        <v>0.0002578301153364828</v>
       </c>
       <c r="E45" t="n">
         <v>0.08117472624904001</v>
@@ -3252,16 +3252,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.045750093460083</v>
+        <v>1.1385169506073</v>
       </c>
       <c r="B46" t="n">
-        <v>0.02957741605328491</v>
+        <v>0.04443219644312512</v>
       </c>
       <c r="C46" t="n">
-        <v>0.002324819564819336</v>
+        <v>0.002909088134765625</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0002751390483306425</v>
+        <v>0.00119394291947325</v>
       </c>
       <c r="E46" t="n">
         <v>0.1804925810006415</v>
@@ -3311,16 +3311,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.1101245403289795</v>
+        <v>0.1174496650695801</v>
       </c>
       <c r="B47" t="n">
-        <v>0.00574738232853761</v>
+        <v>0.008536854619592043</v>
       </c>
       <c r="C47" t="n">
-        <v>0.002284097671508789</v>
+        <v>0.002260208129882812</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0003205561832849984</v>
+        <v>0.0002582949465907748</v>
       </c>
       <c r="E47" t="n">
         <v>0.3036678574825027</v>
@@ -3374,16 +3374,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.637100505828857</v>
+        <v>1.705763149261475</v>
       </c>
       <c r="B48" t="n">
-        <v>0.04985979200697438</v>
+        <v>0.05253518426253806</v>
       </c>
       <c r="C48" t="n">
-        <v>0.002514505386352539</v>
+        <v>0.003196048736572266</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0003118180919097862</v>
+        <v>0.001113484290604961</v>
       </c>
       <c r="E48" t="n">
         <v>0.1607911279315576</v>
@@ -3433,16 +3433,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.220210742950439</v>
+        <v>1.193866205215454</v>
       </c>
       <c r="B49" t="n">
-        <v>0.05137217432742865</v>
+        <v>0.02222439795034999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.002682733535766602</v>
+        <v>0.00229954719543457</v>
       </c>
       <c r="D49" t="n">
-        <v>4.355677106349599e-05</v>
+        <v>0.0001929234467786677</v>
       </c>
       <c r="E49" t="n">
         <v>0.1597580139654257</v>
@@ -3492,16 +3492,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.1963306427001953</v>
+        <v>0.202561616897583</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01172024390199115</v>
+        <v>0.007422460735283716</v>
       </c>
       <c r="C50" t="n">
-        <v>0.002382326126098633</v>
+        <v>0.002425098419189453</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0003538241089109668</v>
+        <v>0.0003034822442027647</v>
       </c>
       <c r="E50" t="n">
         <v>0.2844593170661345</v>
@@ -3555,16 +3555,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.3693706512451172</v>
+        <v>0.3865002632141114</v>
       </c>
       <c r="B51" t="n">
-        <v>0.006810982245816082</v>
+        <v>0.0258021178892036</v>
       </c>
       <c r="C51" t="n">
-        <v>0.002615976333618164</v>
+        <v>0.00287628173828125</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0003217331085909936</v>
+        <v>0.0002729817560152126</v>
       </c>
       <c r="E51" t="n">
         <v>0.2999964457131009</v>
@@ -3618,16 +3618,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.7339848518371582</v>
+        <v>0.7362821102142334</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0156529560627269</v>
+        <v>0.02649518604478445</v>
       </c>
       <c r="C52" t="n">
-        <v>0.00227503776550293</v>
+        <v>0.002207517623901367</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0002202812926888135</v>
+        <v>0.0002693504075127742</v>
       </c>
       <c r="E52" t="n">
         <v>0.1218060601282148</v>
@@ -3677,16 +3677,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.4013756275177002</v>
+        <v>0.3963074684143066</v>
       </c>
       <c r="B53" t="n">
-        <v>0.01235112592493474</v>
+        <v>0.01280067627423029</v>
       </c>
       <c r="C53" t="n">
-        <v>0.003958940505981445</v>
+        <v>0.003420829772949219</v>
       </c>
       <c r="D53" t="n">
-        <v>0.001338105111314123</v>
+        <v>0.0004567173085320364</v>
       </c>
       <c r="E53" t="n">
         <v>0.07267561528460804</v>
@@ -3740,16 +3740,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.1195544242858887</v>
+        <v>0.1295452117919922</v>
       </c>
       <c r="B54" t="n">
-        <v>0.002779441389957018</v>
+        <v>0.00738796886213775</v>
       </c>
       <c r="C54" t="n">
-        <v>0.001929855346679687</v>
+        <v>0.002502059936523437</v>
       </c>
       <c r="D54" t="n">
-        <v>4.591092558982422e-05</v>
+        <v>0.0007025299574984393</v>
       </c>
       <c r="E54" t="n">
         <v>0.1067652292715802</v>
@@ -3803,16 +3803,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.1340429782867432</v>
+        <v>0.1429750919342041</v>
       </c>
       <c r="B55" t="n">
-        <v>0.002240708082267858</v>
+        <v>0.008266709111646437</v>
       </c>
       <c r="C55" t="n">
-        <v>0.002305078506469727</v>
+        <v>0.00248408317565918</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0002837387606373556</v>
+        <v>0.0002109974521489718</v>
       </c>
       <c r="E55" t="n">
         <v>0.098077553279348</v>
@@ -3866,16 +3866,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.1949333667755127</v>
+        <v>0.201221752166748</v>
       </c>
       <c r="B56" t="n">
-        <v>0.007647192448214682</v>
+        <v>0.009864128787439313</v>
       </c>
       <c r="C56" t="n">
-        <v>0.002408123016357422</v>
+        <v>0.002605342864990234</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0002960578812524073</v>
+        <v>0.0002447513024555092</v>
       </c>
       <c r="E56" t="n">
         <v>0.0344782541200721</v>
@@ -3929,16 +3929,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.2604596138000488</v>
+        <v>0.2777740955352783</v>
       </c>
       <c r="B57" t="n">
-        <v>0.007379853745219179</v>
+        <v>0.01876138731532367</v>
       </c>
       <c r="C57" t="n">
-        <v>0.00270838737487793</v>
+        <v>0.003248977661132813</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0003069416158405649</v>
+        <v>0.0006085791296244428</v>
       </c>
       <c r="E57" t="n">
         <v>0.2049891792333295</v>
@@ -3992,16 +3992,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.691838550567627</v>
+        <v>1.738492679595947</v>
       </c>
       <c r="B58" t="n">
-        <v>0.05052613753212932</v>
+        <v>0.05041753065873086</v>
       </c>
       <c r="C58" t="n">
-        <v>0.002618169784545898</v>
+        <v>0.002656030654907227</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0002886051769244153</v>
+        <v>0.0002229914274649567</v>
       </c>
       <c r="E58" t="n">
         <v>0.1836594686522676</v>
@@ -4051,16 +4051,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.2131129741668701</v>
+        <v>0.2258220672607422</v>
       </c>
       <c r="B59" t="n">
-        <v>0.006318673208994093</v>
+        <v>0.01579236923537862</v>
       </c>
       <c r="C59" t="n">
-        <v>0.002307701110839844</v>
+        <v>0.003009510040283203</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0002032091999356418</v>
+        <v>0.0005440835341209184</v>
       </c>
       <c r="E59" t="n">
         <v>0.1009796544019668</v>
@@ -4114,16 +4114,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.1227303504943848</v>
+        <v>0.1316646575927734</v>
       </c>
       <c r="B60" t="n">
-        <v>0.003843455298778751</v>
+        <v>0.007356535527762391</v>
       </c>
       <c r="C60" t="n">
-        <v>0.002086877822875977</v>
+        <v>0.002246475219726562</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0002044591884091786</v>
+        <v>0.0003316681841194667</v>
       </c>
       <c r="E60" t="n">
         <v>0.09146287474592256</v>
@@ -4177,16 +4177,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.1705639839172363</v>
+        <v>0.1815711498260498</v>
       </c>
       <c r="B61" t="n">
-        <v>0.00961870172922389</v>
+        <v>0.00825896078626645</v>
       </c>
       <c r="C61" t="n">
-        <v>0.002616405487060547</v>
+        <v>0.002433967590332031</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0002546937647373607</v>
+        <v>0.000231954170164464</v>
       </c>
       <c r="E61" t="n">
         <v>0.02550451635058231</v>
@@ -4240,16 +4240,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.2946342945098877</v>
+        <v>0.3086299896240234</v>
       </c>
       <c r="B62" t="n">
-        <v>0.005383286673700759</v>
+        <v>0.01286240884014595</v>
       </c>
       <c r="C62" t="n">
-        <v>0.002624034881591797</v>
+        <v>0.002855825424194336</v>
       </c>
       <c r="D62" t="n">
-        <v>7.227095992220292e-05</v>
+        <v>0.0002615469590842124</v>
       </c>
       <c r="E62" t="n">
         <v>0.05150592772534041</v>
@@ -4303,16 +4303,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.3274176597595215</v>
+        <v>0.3315478324890136</v>
       </c>
       <c r="B63" t="n">
-        <v>0.01691410939198899</v>
+        <v>0.01208403246598246</v>
       </c>
       <c r="C63" t="n">
-        <v>0.002865266799926758</v>
+        <v>0.002809047698974609</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0003045879006457595</v>
+        <v>0.0002302976864241486</v>
       </c>
       <c r="E63" t="n">
         <v>0.09124967537862226</v>
@@ -4366,16 +4366,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.1182638168334961</v>
+        <v>0.116002893447876</v>
       </c>
       <c r="B64" t="n">
-        <v>0.001658671311083342</v>
+        <v>0.007036911801232151</v>
       </c>
       <c r="C64" t="n">
-        <v>0.002434015274047852</v>
+        <v>0.002222347259521485</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0002016151299264546</v>
+        <v>0.0002047208809175391</v>
       </c>
       <c r="E64" t="n">
         <v>0.132685883324281</v>
@@ -4429,16 +4429,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.4201818466186523</v>
+        <v>0.4541082859039307</v>
       </c>
       <c r="B65" t="n">
-        <v>0.008315362463314841</v>
+        <v>0.01792347778125285</v>
       </c>
       <c r="C65" t="n">
-        <v>0.002945804595947266</v>
+        <v>0.003354883193969726</v>
       </c>
       <c r="D65" t="n">
-        <v>0.000368177626575587</v>
+        <v>8.843402447036763e-05</v>
       </c>
       <c r="E65" t="n">
         <v>0.08193620774722096</v>
@@ -4492,16 +4492,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.965846109390259</v>
+        <v>1.942596435546875</v>
       </c>
       <c r="B66" t="n">
-        <v>0.03707443593233972</v>
+        <v>0.03853338952041339</v>
       </c>
       <c r="C66" t="n">
-        <v>0.002846336364746094</v>
+        <v>0.002563333511352539</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0004481369953024947</v>
+        <v>0.0002847539441316066</v>
       </c>
       <c r="E66" t="n">
         <v>0.2014811781530051</v>
@@ -4551,16 +4551,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.1844107627868652</v>
+        <v>0.1907201290130615</v>
       </c>
       <c r="B67" t="n">
-        <v>0.009044872061777592</v>
+        <v>0.007869859117871079</v>
       </c>
       <c r="C67" t="n">
-        <v>0.002374744415283203</v>
+        <v>0.002576494216918945</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0002782811850516791</v>
+        <v>0.0005048069089908137</v>
       </c>
       <c r="E67" t="n">
         <v>0.1798111631482229</v>
@@ -4614,16 +4614,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.3909218311309814</v>
+        <v>0.401279878616333</v>
       </c>
       <c r="B68" t="n">
-        <v>0.01064477371108994</v>
+        <v>0.01104003791709263</v>
       </c>
       <c r="C68" t="n">
-        <v>0.003276157379150391</v>
+        <v>0.003097438812255859</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0003594694216499809</v>
+        <v>0.0003443439052953651</v>
       </c>
       <c r="E68" t="n">
         <v>0.02221864069569104</v>
@@ -4677,16 +4677,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.36041841506958</v>
+        <v>2.322304439544678</v>
       </c>
       <c r="B69" t="n">
-        <v>0.06159192861279698</v>
+        <v>0.02828987507071916</v>
       </c>
       <c r="C69" t="n">
-        <v>0.003027582168579102</v>
+        <v>0.002854681015014648</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0003590370896348381</v>
+        <v>0.0003015299140048736</v>
       </c>
       <c r="E69" t="n">
         <v>0.03935024819530044</v>
@@ -4736,16 +4736,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.1147068977355957</v>
+        <v>0.1148419380187988</v>
       </c>
       <c r="B70" t="n">
-        <v>0.007265807525127688</v>
+        <v>0.006398109970434731</v>
       </c>
       <c r="C70" t="n">
-        <v>0.002314567565917969</v>
+        <v>0.002235126495361328</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0003079475873000358</v>
+        <v>0.0002759600209280967</v>
       </c>
       <c r="E70" t="n">
         <v>0.129551420319212</v>
@@ -4799,16 +4799,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.1533046245574951</v>
+        <v>0.1560884475708008</v>
       </c>
       <c r="B71" t="n">
-        <v>0.00910252540326105</v>
+        <v>0.006016891113902269</v>
       </c>
       <c r="C71" t="n">
-        <v>0.002412128448486328</v>
+        <v>0.00227813720703125</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0002620591518271857</v>
+        <v>0.0002462871723218087</v>
       </c>
       <c r="E71" t="n">
         <v>0.08826808700251418</v>
@@ -4862,16 +4862,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.3149984359741211</v>
+        <v>0.3111199855804443</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0184350096526011</v>
+        <v>0.009455892239485805</v>
       </c>
       <c r="C72" t="n">
-        <v>0.002808237075805664</v>
+        <v>0.002718067169189453</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0003724247969718806</v>
+        <v>0.0002423363470078933</v>
       </c>
       <c r="E72" t="n">
         <v>0.2151891308194423</v>
@@ -4925,16 +4925,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.8920173168182373</v>
+        <v>0.834303331375122</v>
       </c>
       <c r="B73" t="n">
-        <v>0.01454593764692788</v>
+        <v>0.01241964227678358</v>
       </c>
       <c r="C73" t="n">
-        <v>0.002459383010864258</v>
+        <v>0.002386569976806641</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0001976842066630373</v>
+        <v>0.0002157725286427472</v>
       </c>
       <c r="E73" t="n">
         <v>0.04855010597017306</v>
@@ -4984,16 +4984,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.1011168956756592</v>
+        <v>0.08675913810729981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.007454476322208791</v>
+        <v>0.003136135921658733</v>
       </c>
       <c r="C74" t="n">
-        <v>0.002204179763793945</v>
+        <v>0.002052021026611328</v>
       </c>
       <c r="D74" t="n">
-        <v>0.000337883324514955</v>
+        <v>0.0002143963161369165</v>
       </c>
       <c r="E74" t="n">
         <v>0.1258307913402323</v>
@@ -5047,16 +5047,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.1919632911682129</v>
+        <v>0.1771995067596435</v>
       </c>
       <c r="B75" t="n">
-        <v>0.009210014265742476</v>
+        <v>0.005679040748356959</v>
       </c>
       <c r="C75" t="n">
-        <v>0.002369070053100586</v>
+        <v>0.002430534362792969</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0002198320456802483</v>
+        <v>0.0002926538325196007</v>
       </c>
       <c r="E75" t="n">
         <v>0.03080839026254963</v>
@@ -5110,16 +5110,16 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.3014647960662842</v>
+        <v>0.2714094161987305</v>
       </c>
       <c r="B76" t="n">
-        <v>0.02674423680798218</v>
+        <v>0.01218992322142546</v>
       </c>
       <c r="C76" t="n">
-        <v>0.002232027053833008</v>
+        <v>0.002548313140869141</v>
       </c>
       <c r="D76" t="n">
-        <v>5.367403259412694e-05</v>
+        <v>0.0004203305241716757</v>
       </c>
       <c r="E76" t="n">
         <v>0.1109662644666179</v>
@@ -5173,16 +5173,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.2075169563293457</v>
+        <v>0.191417407989502</v>
       </c>
       <c r="B77" t="n">
-        <v>0.02347680704486562</v>
+        <v>0.005093077975287579</v>
       </c>
       <c r="C77" t="n">
-        <v>0.002581501007080078</v>
+        <v>0.002355623245239258</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0003292860304761845</v>
+        <v>0.0001187787291337416</v>
       </c>
       <c r="E77" t="n">
         <v>0.09455643243201997</v>
@@ -5236,16 +5236,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.3869041919708252</v>
+        <v>0.3421531677246094</v>
       </c>
       <c r="B78" t="n">
-        <v>0.03296918147391015</v>
+        <v>0.01114194687363122</v>
       </c>
       <c r="C78" t="n">
-        <v>0.002779579162597656</v>
+        <v>0.002773046493530273</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0004104037060357615</v>
+        <v>0.0002745592167421361</v>
       </c>
       <c r="E78" t="n">
         <v>0.2732416040581159</v>
@@ -5299,16 +5299,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.1896566867828369</v>
+        <v>0.1721545696258545</v>
       </c>
       <c r="B79" t="n">
-        <v>0.01903280447133645</v>
+        <v>0.004115097864196198</v>
       </c>
       <c r="C79" t="n">
-        <v>0.002550411224365235</v>
+        <v>0.002396345138549805</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0003263909560478835</v>
+        <v>0.0003252436313176316</v>
       </c>
       <c r="E79" t="n">
         <v>0.2351844254922575</v>
@@ -5362,16 +5362,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3.182243156433105</v>
+        <v>3.031809663772583</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0985513040652634</v>
+        <v>0.06651198734693668</v>
       </c>
       <c r="C80" t="n">
-        <v>0.003262567520141602</v>
+        <v>0.003042221069335938</v>
       </c>
       <c r="D80" t="n">
-        <v>0.000512322692411202</v>
+        <v>0.0002638206887071743</v>
       </c>
       <c r="E80" t="n">
         <v>0.1216054257378349</v>
@@ -5421,16 +5421,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.2702351093292236</v>
+        <v>0.2324455261230469</v>
       </c>
       <c r="B81" t="n">
-        <v>0.01825320243133144</v>
+        <v>0.003955288324668278</v>
       </c>
       <c r="C81" t="n">
-        <v>0.002569961547851563</v>
+        <v>0.002601957321166992</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0003423096823106337</v>
+        <v>0.0002719477019202749</v>
       </c>
       <c r="E81" t="n">
         <v>0.2139534339700737</v>
@@ -5484,16 +5484,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.3756309986114502</v>
+        <v>0.3527516841888428</v>
       </c>
       <c r="B82" t="n">
-        <v>0.01147005427534859</v>
+        <v>0.008164067822261693</v>
       </c>
       <c r="C82" t="n">
-        <v>0.002761316299438476</v>
+        <v>0.002804279327392578</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0003521019110164162</v>
+        <v>0.0002904332499063743</v>
       </c>
       <c r="E82" t="n">
         <v>0.28076587200387</v>
@@ -5547,16 +5547,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.5843587398529053</v>
+        <v>0.5684772968292237</v>
       </c>
       <c r="B83" t="n">
-        <v>0.01192331188360557</v>
+        <v>0.008638215816984344</v>
       </c>
       <c r="C83" t="n">
-        <v>0.002167749404907227</v>
+        <v>0.002291488647460938</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0002984318944835399</v>
+        <v>0.0002809753962159687</v>
       </c>
       <c r="E83" t="n">
         <v>0.01325129544408951</v>
@@ -5606,16 +5606,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.070582675933838</v>
+        <v>2.016301202774048</v>
       </c>
       <c r="B84" t="n">
-        <v>0.03404663680579582</v>
+        <v>0.0363249372811995</v>
       </c>
       <c r="C84" t="n">
-        <v>0.002843475341796875</v>
+        <v>0.002627182006835938</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0003265956035319258</v>
+        <v>0.0002713785544836628</v>
       </c>
       <c r="E84" t="n">
         <v>0.2950185901152415</v>
@@ -5665,16 +5665,16 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.242195463180542</v>
+        <v>0.2391030311584473</v>
       </c>
       <c r="B85" t="n">
-        <v>0.008010278618784014</v>
+        <v>0.004679547884358451</v>
       </c>
       <c r="C85" t="n">
-        <v>0.002539539337158203</v>
+        <v>0.002533292770385742</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0002996004179680252</v>
+        <v>0.0002338991784953507</v>
       </c>
       <c r="E85" t="n">
         <v>0.03751124417754433</v>
@@ -5728,16 +5728,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.3169501781463623</v>
+        <v>0.324924898147583</v>
       </c>
       <c r="B86" t="n">
-        <v>0.01217420575588409</v>
+        <v>0.009477218881182367</v>
       </c>
       <c r="C86" t="n">
-        <v>0.002960777282714844</v>
+        <v>0.003142976760864258</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0002965086253521264</v>
+        <v>0.000283300613519172</v>
       </c>
       <c r="E86" t="n">
         <v>0.04403938060523441</v>
@@ -5791,16 +5791,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.5086318016052246</v>
+        <v>0.4969102382659912</v>
       </c>
       <c r="B87" t="n">
-        <v>0.02051608504029005</v>
+        <v>0.0108330062062214</v>
       </c>
       <c r="C87" t="n">
-        <v>0.003081035614013672</v>
+        <v>0.003069877624511719</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0003239567362697955</v>
+        <v>0.0002624299628537319</v>
       </c>
       <c r="E87" t="n">
         <v>0.1424591504120131</v>
@@ -5854,16 +5854,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.06423602104187012</v>
+        <v>0.06520509719848633</v>
       </c>
       <c r="B88" t="n">
-        <v>0.002279059714524747</v>
+        <v>0.004722614995552168</v>
       </c>
       <c r="C88" t="n">
-        <v>0.001947498321533203</v>
+        <v>0.002113199234008789</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0001909614409301226</v>
+        <v>0.000270002639770422</v>
       </c>
       <c r="E88" t="n">
         <v>0.3005955831922404</v>
@@ -5917,16 +5917,16 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.08878264427185059</v>
+        <v>0.0914149284362793</v>
       </c>
       <c r="B89" t="n">
-        <v>0.002872498507821276</v>
+        <v>0.003490795638668032</v>
       </c>
       <c r="C89" t="n">
-        <v>0.002036857604980469</v>
+        <v>0.002274513244628906</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0001797544793310279</v>
+        <v>0.0002207213225895915</v>
       </c>
       <c r="E89" t="n">
         <v>0.1378274425140823</v>
@@ -5980,16 +5980,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.657343673706055</v>
+        <v>2.554537296295166</v>
       </c>
       <c r="B90" t="n">
-        <v>0.06855647779714526</v>
+        <v>0.07744134270238771</v>
       </c>
       <c r="C90" t="n">
-        <v>0.00329742431640625</v>
+        <v>0.002929544448852539</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0008093153080015114</v>
+        <v>0.0002383825084103225</v>
       </c>
       <c r="E90" t="n">
         <v>0.1639978506077179</v>
@@ -6039,16 +6039,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.4161463260650635</v>
+        <v>0.3956313610076904</v>
       </c>
       <c r="B91" t="n">
-        <v>0.01661725013415869</v>
+        <v>0.006893734782796587</v>
       </c>
       <c r="C91" t="n">
-        <v>0.002924871444702148</v>
+        <v>0.002758455276489258</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0002725151851178296</v>
+        <v>0.0002436021644769052</v>
       </c>
       <c r="E91" t="n">
         <v>0.1211926441200673</v>
@@ -6102,16 +6102,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1.721100282669067</v>
+        <v>1.640886831283569</v>
       </c>
       <c r="B92" t="n">
-        <v>0.04935958474841776</v>
+        <v>0.0380815760318434</v>
       </c>
       <c r="C92" t="n">
-        <v>0.002493667602539063</v>
+        <v>0.002435636520385742</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0001872208910695202</v>
+        <v>0.0002072239271040406</v>
       </c>
       <c r="E92" t="n">
         <v>0.1150654740100941</v>
@@ -6161,16 +6161,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.31041750907898</v>
+        <v>2.226650428771973</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0450068557669173</v>
+        <v>0.03239853205367807</v>
       </c>
       <c r="C93" t="n">
-        <v>0.002115440368652344</v>
+        <v>0.002338218688964844</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0004510243705716889</v>
+        <v>0.0002879327156578447</v>
       </c>
       <c r="E93" t="n">
         <v>0.08461724632908638</v>
@@ -6220,16 +6220,16 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.1015392780303955</v>
+        <v>0.09961166381835937</v>
       </c>
       <c r="B94" t="n">
-        <v>0.006697069355298122</v>
+        <v>0.004108679141969262</v>
       </c>
       <c r="C94" t="n">
-        <v>0.002110099792480469</v>
+        <v>0.002179098129272461</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0001936173544570187</v>
+        <v>0.0002445799257802879</v>
       </c>
       <c r="E94" t="n">
         <v>0.1315606260344251</v>
@@ -6283,16 +6283,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.261814022064209</v>
+        <v>0.2652404308319092</v>
       </c>
       <c r="B95" t="n">
-        <v>0.01351206862523791</v>
+        <v>0.01157285108651972</v>
       </c>
       <c r="C95" t="n">
-        <v>0.002740335464477539</v>
+        <v>0.002755928039550781</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0003094357355400693</v>
+        <v>0.0002560595737856659</v>
       </c>
       <c r="E95" t="n">
         <v>0.2143118281290727</v>
@@ -6346,16 +6346,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.4076032638549805</v>
+        <v>0.4072826862335205</v>
       </c>
       <c r="B96" t="n">
-        <v>0.01655480060866051</v>
+        <v>0.01104563777788222</v>
       </c>
       <c r="C96" t="n">
-        <v>0.002703714370727539</v>
+        <v>0.002671623229980469</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0002355263473130139</v>
+        <v>0.0002169209537818311</v>
       </c>
       <c r="E96" t="n">
         <v>0.2989667618321834</v>
@@ -6409,16 +6409,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.495374822616577</v>
+        <v>2.454905891418457</v>
       </c>
       <c r="B97" t="n">
-        <v>0.03951401425746619</v>
+        <v>0.02926644117614784</v>
       </c>
       <c r="C97" t="n">
-        <v>0.002191829681396485</v>
+        <v>0.002118587493896484</v>
       </c>
       <c r="D97" t="n">
-        <v>5.885770076434359e-05</v>
+        <v>3.381410950626056e-05</v>
       </c>
       <c r="E97" t="n">
         <v>0.02302023498945183</v>
@@ -6468,16 +6468,16 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.6225635528564453</v>
+        <v>0.6024373054504395</v>
       </c>
       <c r="B98" t="n">
-        <v>0.008066380945125424</v>
+        <v>0.01063355708342056</v>
       </c>
       <c r="C98" t="n">
-        <v>0.001969480514526367</v>
+        <v>0.002055883407592773</v>
       </c>
       <c r="D98" t="n">
-        <v>5.903690795754125e-05</v>
+        <v>0.0001913060338495365</v>
       </c>
       <c r="E98" t="n">
         <v>0.3007907606857297</v>
@@ -6527,16 +6527,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.09828987121582031</v>
+        <v>0.08734593391418458</v>
       </c>
       <c r="B99" t="n">
-        <v>0.01473560559628767</v>
+        <v>0.003094624144984512</v>
       </c>
       <c r="C99" t="n">
-        <v>0.00227818489074707</v>
+        <v>0.001908349990844727</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0002763890492451826</v>
+        <v>0.000204513194693576</v>
       </c>
       <c r="E99" t="n">
         <v>0.09834818405182895</v>
@@ -6590,16 +6590,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.3812360286712647</v>
+        <v>0.3526944637298584</v>
       </c>
       <c r="B100" t="n">
-        <v>0.01767043716474296</v>
+        <v>0.005620276685401895</v>
       </c>
       <c r="C100" t="n">
-        <v>0.002783918380737305</v>
+        <v>0.002676725387573242</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0003285069787341644</v>
+        <v>0.0002800636791222605</v>
       </c>
       <c r="E100" t="n">
         <v>0.2976107222223539</v>
@@ -6653,16 +6653,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.3213633060455322</v>
+        <v>0.3235124111175537</v>
       </c>
       <c r="B101" t="n">
-        <v>0.007347477229104255</v>
+        <v>0.009766369065329145</v>
       </c>
       <c r="C101" t="n">
-        <v>0.002861166000366211</v>
+        <v>0.002629327774047852</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0005884326951283368</v>
+        <v>0.00054196138384367</v>
       </c>
       <c r="E101" t="n">
         <v>0.1264805151969617</v>
